--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H2">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I2">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J2">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="N2">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="O2">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="P2">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="Q2">
-        <v>284.0614530812119</v>
+        <v>650.6823828578542</v>
       </c>
       <c r="R2">
-        <v>2556.553077730908</v>
+        <v>5856.141445720688</v>
       </c>
       <c r="S2">
-        <v>0.03947519286147733</v>
+        <v>0.02806885242440729</v>
       </c>
       <c r="T2">
-        <v>0.03947519286147733</v>
+        <v>0.02806885242440729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H3">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I3">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J3">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>115.794365</v>
       </c>
       <c r="O3">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="P3">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="Q3">
-        <v>584.3877590397799</v>
+        <v>1202.330666490071</v>
       </c>
       <c r="R3">
-        <v>5259.48983135802</v>
+        <v>10820.97599841064</v>
       </c>
       <c r="S3">
-        <v>0.08121066495912972</v>
+        <v>0.05186561513287741</v>
       </c>
       <c r="T3">
-        <v>0.08121066495912974</v>
+        <v>0.05186561513287741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H4">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I4">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J4">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="N4">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="O4">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="P4">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="Q4">
-        <v>1353.921496607</v>
+        <v>8638.910793183608</v>
       </c>
       <c r="R4">
-        <v>12185.293469463</v>
+        <v>77750.19713865248</v>
       </c>
       <c r="S4">
-        <v>0.1881505273529009</v>
+        <v>0.3726615604628445</v>
       </c>
       <c r="T4">
-        <v>0.1881505273529009</v>
+        <v>0.3726615604628445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H5">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I5">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J5">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="N5">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="O5">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="P5">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="Q5">
-        <v>101.3142002386</v>
+        <v>222.0309840734862</v>
       </c>
       <c r="R5">
-        <v>911.8278021473998</v>
+        <v>1998.278856661376</v>
       </c>
       <c r="S5">
-        <v>0.01407933934943878</v>
+        <v>0.009577875611496403</v>
       </c>
       <c r="T5">
-        <v>0.01407933934943878</v>
+        <v>0.009577875611496405</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H6">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I6">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J6">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="N6">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="O6">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="P6">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="Q6">
-        <v>355.3639613392587</v>
+        <v>395.6464857964686</v>
       </c>
       <c r="R6">
-        <v>3198.275652053328</v>
+        <v>3560.818372168217</v>
       </c>
       <c r="S6">
-        <v>0.04938389477954</v>
+        <v>0.01706722529243958</v>
       </c>
       <c r="T6">
-        <v>0.04938389477954</v>
+        <v>0.01706722529243958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H7">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I7">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J7">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>115.794365</v>
       </c>
       <c r="O7">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="P7">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="Q7">
-        <v>731.0754301857926</v>
+        <v>731.0754301857927</v>
       </c>
       <c r="R7">
-        <v>6579.678871672134</v>
+        <v>6579.678871672135</v>
       </c>
       <c r="S7">
-        <v>0.1015954234192448</v>
+        <v>0.031536812585685</v>
       </c>
       <c r="T7">
-        <v>0.1015954234192448</v>
+        <v>0.031536812585685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H8">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I8">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J8">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="N8">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="O8">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="P8">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="Q8">
-        <v>1693.770489300028</v>
+        <v>5252.877266202167</v>
       </c>
       <c r="R8">
-        <v>15243.93440370025</v>
+        <v>47275.89539581951</v>
       </c>
       <c r="S8">
-        <v>0.2353783521239746</v>
+        <v>0.2265963251394226</v>
       </c>
       <c r="T8">
-        <v>0.2353783521239746</v>
+        <v>0.2265963251394226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H9">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I9">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J9">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="N9">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="O9">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="P9">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="Q9">
-        <v>126.7451642811055</v>
+        <v>135.0056201011315</v>
       </c>
       <c r="R9">
-        <v>1140.70647852995</v>
+        <v>1215.050580910184</v>
       </c>
       <c r="S9">
-        <v>0.0176134063597353</v>
+        <v>0.005823813471698195</v>
       </c>
       <c r="T9">
-        <v>0.0176134063597353</v>
+        <v>0.005823813471698196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H10">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I10">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J10">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="N10">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="O10">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="P10">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="Q10">
-        <v>179.8148205171197</v>
+        <v>310.58313392128</v>
       </c>
       <c r="R10">
-        <v>1618.333384654077</v>
+        <v>2795.24820529152</v>
       </c>
       <c r="S10">
-        <v>0.02498834193189836</v>
+        <v>0.01339779957351446</v>
       </c>
       <c r="T10">
-        <v>0.02498834193189836</v>
+        <v>0.01339779957351446</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H11">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I11">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J11">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>115.794365</v>
       </c>
       <c r="O11">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="P11">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="Q11">
-        <v>369.9255173988617</v>
+        <v>573.8954000384</v>
       </c>
       <c r="R11">
-        <v>3329.329656589755</v>
+        <v>5165.0586003456</v>
       </c>
       <c r="S11">
-        <v>0.05140747181746955</v>
+        <v>0.02475644909882715</v>
       </c>
       <c r="T11">
-        <v>0.05140747181746955</v>
+        <v>0.02475644909882715</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H12">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I12">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J12">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="N12">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="O12">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="P12">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="Q12">
-        <v>857.0509946559168</v>
+        <v>4123.51718518784</v>
       </c>
       <c r="R12">
-        <v>7713.458951903252</v>
+        <v>37111.65466669056</v>
       </c>
       <c r="S12">
-        <v>0.1191018807345564</v>
+        <v>0.1778784832504517</v>
       </c>
       <c r="T12">
-        <v>0.1191018807345564</v>
+        <v>0.1778784832504517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H13">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I13">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J13">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="N13">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="O13">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="P13">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="Q13">
-        <v>64.13328712548333</v>
+        <v>105.97963104256</v>
       </c>
       <c r="R13">
-        <v>577.19958412935</v>
+        <v>953.8166793830399</v>
       </c>
       <c r="S13">
-        <v>0.008912416136219512</v>
+        <v>0.004571703033762015</v>
       </c>
       <c r="T13">
-        <v>0.008912416136219512</v>
+        <v>0.004571703033762015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H14">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I14">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J14">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="N14">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="O14">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="P14">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="Q14">
-        <v>60.43650889662401</v>
+        <v>50.96147912681466</v>
       </c>
       <c r="R14">
-        <v>543.928580069616</v>
+        <v>458.653312141332</v>
       </c>
       <c r="S14">
-        <v>0.008398685631895818</v>
+        <v>0.002198354027440389</v>
       </c>
       <c r="T14">
-        <v>0.008398685631895818</v>
+        <v>0.002198354027440389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H15">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I15">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J15">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>115.794365</v>
       </c>
       <c r="O15">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="P15">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="Q15">
-        <v>124.33350465256</v>
+        <v>94.16660229027332</v>
       </c>
       <c r="R15">
-        <v>1119.00154187304</v>
+        <v>847.49942061246</v>
       </c>
       <c r="S15">
-        <v>0.01727826504464157</v>
+        <v>0.004062117759181668</v>
       </c>
       <c r="T15">
-        <v>0.01727826504464157</v>
+        <v>0.004062117759181668</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H16">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I16">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J16">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="N16">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="O16">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="P16">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="Q16">
-        <v>288.0584031640001</v>
+        <v>676.5999566971773</v>
       </c>
       <c r="R16">
-        <v>2592.525628476001</v>
+        <v>6089.399610274596</v>
       </c>
       <c r="S16">
-        <v>0.04003063737414991</v>
+        <v>0.02918687340431994</v>
       </c>
       <c r="T16">
-        <v>0.0400306373741499</v>
+        <v>0.02918687340431994</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H17">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I17">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J17">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="N17">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="O17">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="P17">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="Q17">
-        <v>21.5554644872</v>
+        <v>17.38947858196266</v>
       </c>
       <c r="R17">
-        <v>193.9991803848</v>
+        <v>156.505307237664</v>
       </c>
       <c r="S17">
-        <v>0.002995500123727365</v>
+        <v>0.0007501397316317542</v>
       </c>
       <c r="T17">
-        <v>0.002995500123727365</v>
+        <v>0.0007501397316317543</v>
       </c>
     </row>
   </sheetData>
